--- a/EDSI/Planilha Custos Projeto.xlsx
+++ b/EDSI/Planilha Custos Projeto.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\fatec-zona-sul\EDSI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lab3aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cálculo Mão de Obra" sheetId="1" r:id="rId1"/>
+    <sheet name="Cálculo de Custos" sheetId="2" r:id="rId2"/>
+    <sheet name="Salários" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,110 +26,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>dt inicial</t>
-  </si>
-  <si>
-    <t>dt final</t>
-  </si>
-  <si>
-    <t>custo</t>
-  </si>
-  <si>
-    <t>duracao</t>
-  </si>
-  <si>
-    <t>valor hora</t>
-  </si>
-  <si>
-    <t>gerenciamento</t>
-  </si>
-  <si>
-    <t>estudo de viabilidade</t>
-  </si>
-  <si>
-    <t>definicao de equipe</t>
-  </si>
-  <si>
-    <t>planejamento</t>
-  </si>
-  <si>
-    <t>projeto logico</t>
-  </si>
-  <si>
-    <t>definicao</t>
-  </si>
-  <si>
-    <t>levantamento de requisitos</t>
-  </si>
-  <si>
-    <t>diagrama de caso de uso</t>
-  </si>
-  <si>
-    <t>cenarios otimos/ alternativos</t>
-  </si>
-  <si>
-    <t>desenvolvimento</t>
-  </si>
-  <si>
-    <t>prototipacao</t>
-  </si>
-  <si>
-    <t>validacao</t>
-  </si>
-  <si>
     <t>Modelagem UML</t>
   </si>
   <si>
-    <t>modelagem Dados</t>
-  </si>
-  <si>
-    <t>projeto fisico</t>
-  </si>
-  <si>
-    <t>testes e validacoes</t>
-  </si>
-  <si>
-    <t>operacao</t>
-  </si>
-  <si>
-    <t>configuracao</t>
-  </si>
-  <si>
-    <t>treinamento</t>
-  </si>
-  <si>
-    <t>homologação</t>
-  </si>
-  <si>
-    <t>codificacao (front)</t>
-  </si>
-  <si>
-    <t>codificacao (back)</t>
-  </si>
-  <si>
     <t>Finalização</t>
   </si>
   <si>
-    <t>encerramento de atividade</t>
-  </si>
-  <si>
-    <t>reuniao com equipe</t>
-  </si>
-  <si>
     <t>Projeto</t>
+  </si>
+  <si>
+    <t>Data Final</t>
+  </si>
+  <si>
+    <t>Data Inicial</t>
+  </si>
+  <si>
+    <t>Custo</t>
+  </si>
+  <si>
+    <t>Duração</t>
+  </si>
+  <si>
+    <t>Valor/Hora</t>
+  </si>
+  <si>
+    <t>Gerenciamento</t>
+  </si>
+  <si>
+    <t>Projeto Lógico</t>
+  </si>
+  <si>
+    <t>Definição</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Projeto Físico</t>
+  </si>
+  <si>
+    <t>Operação</t>
+  </si>
+  <si>
+    <t>Estudo de viabilidade</t>
+  </si>
+  <si>
+    <t>Definição de equipe</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>Levantamento de requisitos</t>
+  </si>
+  <si>
+    <t>Diagrama de caso de uso</t>
+  </si>
+  <si>
+    <t>Cenarios ótimos/ alternativos</t>
+  </si>
+  <si>
+    <t>Prototipação</t>
+  </si>
+  <si>
+    <t>Validação</t>
+  </si>
+  <si>
+    <t>Modelagem Dados</t>
+  </si>
+  <si>
+    <t>Codificação (back)</t>
+  </si>
+  <si>
+    <t>Codificação (front)</t>
+  </si>
+  <si>
+    <t>Testes e validações</t>
+  </si>
+  <si>
+    <t>Configuração</t>
+  </si>
+  <si>
+    <t>Treinamento</t>
+  </si>
+  <si>
+    <t>Homologação</t>
+  </si>
+  <si>
+    <t>Encerramento de atividade</t>
+  </si>
+  <si>
+    <t>Reunião com equipe</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Transporte</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Multiplicador</t>
+  </si>
+  <si>
+    <t>10% sobre mão de obra</t>
+  </si>
+  <si>
+    <t>Maquinas para trabalho</t>
+  </si>
+  <si>
+    <t>Equipamentos</t>
+  </si>
+  <si>
+    <t>Impostos</t>
+  </si>
+  <si>
+    <t>Estacionamento - Visita cliente</t>
+  </si>
+  <si>
+    <t>Combustivel - Visita cliente</t>
+  </si>
+  <si>
+    <t>Depreciação</t>
+  </si>
+  <si>
+    <t>20% ao ano segundo Receita Federal</t>
+  </si>
+  <si>
+    <t>0,2 (20%) * 0,18 (2 meses)</t>
+  </si>
+  <si>
+    <t>VT - 6% sobre salário</t>
+  </si>
+  <si>
+    <t>Analista</t>
+  </si>
+  <si>
+    <t>Cargo</t>
+  </si>
+  <si>
+    <t>Programador Back</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Programador Front</t>
+  </si>
+  <si>
+    <t>UX</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Aluguel Sala Comercial / mês</t>
+  </si>
+  <si>
+    <t>segundo aplicativo VivaReal</t>
+  </si>
+  <si>
+    <t>Água, Luz, Telefone / mês</t>
+  </si>
+  <si>
+    <t>VR - Alimentação</t>
+  </si>
+  <si>
+    <t>6 funcionarios * 2 meses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -146,15 +242,81 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -162,17 +324,278 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,582 +904,654 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="9.140625" style="4"/>
+    <col min="2" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B2" s="32">
+        <v>43606</v>
+      </c>
+      <c r="C2" s="32">
+        <v>43655</v>
+      </c>
+      <c r="D2" s="33">
+        <f>SUM(D4,D10,D23)</f>
+        <v>13150</v>
+      </c>
+      <c r="E2" s="34">
+        <f>SUM(E4,E10,E23)</f>
+        <v>314</v>
+      </c>
+      <c r="F2" s="35"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="12">
+        <v>43606</v>
+      </c>
+      <c r="C4" s="12">
+        <v>43607</v>
+      </c>
+      <c r="D4" s="13">
+        <f>SUM(D6:D8)</f>
+        <v>1280</v>
+      </c>
+      <c r="E4" s="14">
+        <f>SUM(E6:E8)</f>
+        <v>16</v>
+      </c>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43606</v>
+      </c>
+      <c r="C6" s="18">
+        <v>43606</v>
+      </c>
+      <c r="D6" s="19">
+        <f>E6*F6</f>
+        <v>320</v>
+      </c>
+      <c r="E6" s="20">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="1">
+      <c r="F6" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="18">
         <v>43606</v>
       </c>
-      <c r="C2" s="1">
-        <v>43655</v>
-      </c>
-      <c r="D2" s="4">
-        <f>SUM(D4,D9,D22)</f>
-        <v>13150</v>
-      </c>
-      <c r="E2" s="5">
-        <f>SUM(E4,E9,E22)</f>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="C7" s="18">
         <v>43606</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D7" s="19">
+        <f t="shared" ref="D7:D8" si="0">E7*F7</f>
+        <v>320</v>
+      </c>
+      <c r="E7" s="20">
+        <v>4</v>
+      </c>
+      <c r="F7" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="28">
         <v>43607</v>
       </c>
-      <c r="D4" s="4">
-        <f>SUM(D5:D7)</f>
-        <v>1280</v>
-      </c>
-      <c r="E4" s="5">
-        <f>SUM(E5:E7)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43606</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43606</v>
-      </c>
-      <c r="D5" s="4">
-        <f>E5*F5</f>
-        <v>320</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43606</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43606</v>
-      </c>
-      <c r="D6" s="4">
-        <f t="shared" ref="D6:D7" si="0">E6*F6</f>
-        <v>320</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="C8" s="28">
         <v>43607</v>
       </c>
-      <c r="C7" s="1">
-        <v>43607</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="D8" s="29">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E8" s="30">
         <v>8</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F8" s="31">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="12">
         <v>43608</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C10" s="12">
         <v>43621</v>
       </c>
-      <c r="D9" s="4">
-        <f>SUM(D11,D16)</f>
+      <c r="D10" s="13">
+        <f>SUM(D12,D17)</f>
         <v>2910</v>
       </c>
-      <c r="E9" s="5">
-        <f>SUM(E11,E16)</f>
+      <c r="E10" s="14">
+        <f>SUM(E12,E17)</f>
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="23">
         <v>43608</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="23">
         <v>43614</v>
       </c>
-      <c r="D11" s="4">
-        <f>SUM(D12:D14)</f>
+      <c r="D12" s="24">
+        <f>SUM(D13:D15)</f>
         <v>1600</v>
       </c>
-      <c r="E11" s="5">
-        <f>SUM(E12:E14)</f>
+      <c r="E12" s="25">
+        <f>SUM(E13:E15)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="18">
         <v>43608</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="18">
         <v>43609</v>
       </c>
-      <c r="D12" s="4">
-        <f>E12*F12</f>
+      <c r="D13" s="19">
+        <f>E13*F13</f>
         <v>640</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E13" s="20">
         <v>16</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="27">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
+    <row r="14" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="18">
         <v>43612</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C14" s="18">
         <v>43612</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" ref="D13:D14" si="1">E13*F13</f>
+      <c r="D14" s="19">
+        <f t="shared" ref="D14:D15" si="1">E14*F14</f>
         <v>320</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E14" s="20">
         <v>8</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="27">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="15" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="18">
         <v>43613</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C15" s="18">
         <v>43614</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D15" s="19">
         <f t="shared" si="1"/>
         <v>640</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E15" s="20">
         <v>16</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F15" s="27">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="23">
         <v>43615</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="23">
         <v>43621</v>
       </c>
-      <c r="D16" s="4">
-        <f>SUM(D17:D20)</f>
+      <c r="D17" s="24">
+        <f>SUM(D18:D21)</f>
         <v>1310</v>
       </c>
-      <c r="E16" s="5">
-        <f>SUM(E17:E20)</f>
+      <c r="E17" s="25">
+        <f>SUM(E18:E21)</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="F17" s="26"/>
+    </row>
+    <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="18">
         <v>43615</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="18">
         <v>43615</v>
       </c>
-      <c r="D17" s="4">
-        <f>E17*F17</f>
+      <c r="D18" s="19">
+        <f>E18*F18</f>
         <v>280</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E18" s="20">
         <v>8</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F18" s="27">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="18">
         <v>43616</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="18">
         <v>43616</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" ref="D18:D20" si="2">E18*F18</f>
+      <c r="D19" s="19">
+        <f t="shared" ref="D19:D21" si="2">E19*F19</f>
         <v>70</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="20">
         <v>2</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F19" s="27">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
+    <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="18">
         <v>43616</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="18">
         <v>43620</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="19">
         <f t="shared" si="2"/>
         <v>640</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="20">
         <v>16</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F20" s="27">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="21" spans="1:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="28">
         <v>43620</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="28">
         <v>43621</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D21" s="29">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E21" s="30">
         <v>8</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F21" s="31">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="12">
         <v>43622</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="12">
         <v>43654</v>
       </c>
-      <c r="D22" s="4">
-        <f>SUM(D24,D29)</f>
+      <c r="D23" s="13">
+        <f>SUM(D25,D30)</f>
         <v>8960</v>
       </c>
-      <c r="E22" s="5">
-        <f>SUM(E24,E29)</f>
+      <c r="E23" s="14">
+        <f>SUM(E25,E30)</f>
         <v>224</v>
       </c>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="23">
         <v>43622</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="23">
         <v>43637</v>
       </c>
-      <c r="D24" s="4">
-        <f>SUM(D25:D27)</f>
+      <c r="D25" s="24">
+        <f>SUM(D26:D28)</f>
         <v>5440</v>
       </c>
-      <c r="E24" s="5">
-        <f>SUM(E25:E27)</f>
+      <c r="E25" s="25">
+        <f>SUM(E26:E28)</f>
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18">
+        <v>43622</v>
+      </c>
+      <c r="C26" s="18">
+        <v>43635</v>
+      </c>
+      <c r="D26" s="19">
+        <f>E26*F26</f>
+        <v>3360</v>
+      </c>
+      <c r="E26" s="20">
+        <v>80</v>
+      </c>
+      <c r="F26" s="27">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18">
+        <v>43629</v>
+      </c>
+      <c r="C27" s="18">
+        <v>43635</v>
+      </c>
+      <c r="D27" s="19">
+        <f>E27*F27</f>
+        <v>1520</v>
+      </c>
+      <c r="E27" s="20">
+        <v>40</v>
+      </c>
+      <c r="F27" s="27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18">
+        <v>43636</v>
+      </c>
+      <c r="C28" s="18">
+        <v>43637</v>
+      </c>
+      <c r="D28" s="19">
+        <f>E28*F28</f>
+        <v>560</v>
+      </c>
+      <c r="E28" s="20">
+        <v>16</v>
+      </c>
+      <c r="F28" s="27">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="23">
+        <v>43640</v>
+      </c>
+      <c r="C30" s="23">
+        <v>43654</v>
+      </c>
+      <c r="D30" s="24">
+        <f>SUM(D31:D33)</f>
+        <v>3520</v>
+      </c>
+      <c r="E30" s="25">
+        <f>SUM(E31:E33)</f>
+        <v>88</v>
+      </c>
+      <c r="F30" s="26"/>
+    </row>
+    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="1">
-        <v>43622</v>
-      </c>
-      <c r="C25" s="1">
-        <v>43635</v>
-      </c>
-      <c r="D25" s="4">
-        <f>E25*F25</f>
-        <v>3360</v>
-      </c>
-      <c r="E25" s="5">
-        <v>80</v>
-      </c>
-      <c r="F25" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="1">
-        <v>43629</v>
-      </c>
-      <c r="C26" s="1">
-        <v>43635</v>
-      </c>
-      <c r="D26" s="4">
-        <f>E26*F26</f>
+      <c r="B31" s="18">
+        <v>43640</v>
+      </c>
+      <c r="C31" s="18">
+        <v>43644</v>
+      </c>
+      <c r="D31" s="19">
+        <f>E31*F31</f>
         <v>1520</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E31" s="20">
         <v>40</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F31" s="27">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="1">
-        <v>43636</v>
-      </c>
-      <c r="C27" s="1">
-        <v>43637</v>
-      </c>
-      <c r="D27" s="4">
-        <f>E27*F27</f>
-        <v>560</v>
-      </c>
-      <c r="E27" s="5">
-        <v>16</v>
-      </c>
-      <c r="F27" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="4">
-        <f>SUM(D30:D32)</f>
-        <v>3520</v>
-      </c>
-      <c r="E29" s="5">
-        <f>SUM(E30:E32)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="1">
-        <v>43640</v>
-      </c>
-      <c r="C30" s="1">
-        <v>43644</v>
-      </c>
-      <c r="D30" s="4">
-        <f>E30*F30</f>
-        <v>1520</v>
-      </c>
-      <c r="E30" s="5">
+    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="18">
+        <v>43647</v>
+      </c>
+      <c r="C32" s="18">
+        <v>43647</v>
+      </c>
+      <c r="D32" s="19">
+        <f t="shared" ref="D32:D33" si="3">E32*F32</f>
+        <v>320</v>
+      </c>
+      <c r="E32" s="20">
+        <v>8</v>
+      </c>
+      <c r="F32" s="27">
         <v>40</v>
       </c>
-      <c r="F30" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="1">
-        <v>43647</v>
-      </c>
-      <c r="C31" s="1">
-        <v>43647</v>
-      </c>
-      <c r="D31" s="4">
-        <f t="shared" ref="D31:D32" si="3">E31*F31</f>
-        <v>320</v>
-      </c>
-      <c r="E31" s="5">
-        <v>8</v>
-      </c>
-      <c r="F31" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="1">
+    </row>
+    <row r="33" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="18">
         <v>43648</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="18">
         <v>43654</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D33" s="19">
         <f t="shared" si="3"/>
         <v>1680</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E33" s="20">
         <v>40</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F33" s="27">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="23">
         <v>43655</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C35" s="23">
         <v>43655</v>
       </c>
-      <c r="D34" s="4">
-        <f>SUM(D35:D36)</f>
+      <c r="D35" s="24">
+        <f>SUM(D36:D37)</f>
         <v>640</v>
       </c>
-      <c r="E34" s="5">
-        <f>SUM(E35:E36)</f>
+      <c r="E35" s="25">
+        <f>SUM(E36:E37)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="1">
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="18">
         <v>43655</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C36" s="18">
         <v>43655</v>
       </c>
-      <c r="D35" s="4">
-        <f>E35*F35</f>
-        <v>320</v>
-      </c>
-      <c r="E35" s="5">
-        <v>4</v>
-      </c>
-      <c r="F35" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="1">
-        <v>43655</v>
-      </c>
-      <c r="C36" s="1">
-        <v>43655</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="D36" s="19">
         <f>E36*F36</f>
         <v>320</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="20">
         <v>4</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="28">
+        <v>43655</v>
+      </c>
+      <c r="C37" s="28">
+        <v>43655</v>
+      </c>
+      <c r="D37" s="29">
+        <f>E37*F37</f>
+        <v>320</v>
+      </c>
+      <c r="E37" s="30">
+        <v>4</v>
+      </c>
+      <c r="F37" s="31">
         <v>80</v>
       </c>
     </row>
@@ -1064,4 +1559,362 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="65">
+        <f>'Cálculo Mão de Obra'!D2</f>
+        <v>13150</v>
+      </c>
+      <c r="D2" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="60">
+        <f>C2*D2</f>
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="65">
+        <v>2500</v>
+      </c>
+      <c r="D3" s="67">
+        <v>6</v>
+      </c>
+      <c r="E3" s="60">
+        <f t="shared" ref="E3:E6" si="0">C3*D3</f>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="65">
+        <f>E3</f>
+        <v>15000</v>
+      </c>
+      <c r="D4" s="67">
+        <f>0.2*0.18</f>
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E4" s="60">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="65">
+        <v>20</v>
+      </c>
+      <c r="D5" s="67">
+        <v>2</v>
+      </c>
+      <c r="E5" s="60">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="65">
+        <v>10</v>
+      </c>
+      <c r="D6" s="67">
+        <v>2</v>
+      </c>
+      <c r="E6" s="60">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="65">
+        <f>SUM(Salários!E3:E7)*2</f>
+        <v>3830.3999999999996</v>
+      </c>
+      <c r="D7" s="67">
+        <v>1</v>
+      </c>
+      <c r="E7" s="60">
+        <f>C7*D7</f>
+        <v>3830.3999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="65">
+        <v>4620</v>
+      </c>
+      <c r="D8" s="67">
+        <v>2</v>
+      </c>
+      <c r="E8" s="60">
+        <f>C8*D8</f>
+        <v>9240</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="65">
+        <v>700</v>
+      </c>
+      <c r="D9" s="67">
+        <v>2</v>
+      </c>
+      <c r="E9" s="60">
+        <f>C9*D9</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="66">
+        <v>440</v>
+      </c>
+      <c r="D10" s="68">
+        <v>12</v>
+      </c>
+      <c r="E10" s="62">
+        <f>C10*D10</f>
+        <v>5280</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="72">
+        <f>SUM(E2:E10)</f>
+        <v>36665.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="44"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="50">
+        <v>80</v>
+      </c>
+      <c r="C2" s="51">
+        <f>B2*168</f>
+        <v>13440</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="50">
+        <v>40</v>
+      </c>
+      <c r="C3" s="51">
+        <f t="shared" ref="C3:C7" si="0">B3*168</f>
+        <v>6720</v>
+      </c>
+      <c r="E3" s="44">
+        <f>C3*0.06</f>
+        <v>403.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="50">
+        <v>42</v>
+      </c>
+      <c r="C4" s="51">
+        <f t="shared" si="0"/>
+        <v>7056</v>
+      </c>
+      <c r="E4" s="44">
+        <f t="shared" ref="E4:E7" si="1">C4*0.06</f>
+        <v>423.35999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="50">
+        <v>38</v>
+      </c>
+      <c r="C5" s="51">
+        <f t="shared" si="0"/>
+        <v>6384</v>
+      </c>
+      <c r="E5" s="44">
+        <f t="shared" si="1"/>
+        <v>383.03999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="50">
+        <v>35</v>
+      </c>
+      <c r="C6" s="51">
+        <f t="shared" si="0"/>
+        <v>5880</v>
+      </c>
+      <c r="E6" s="44">
+        <f t="shared" si="1"/>
+        <v>352.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="53">
+        <v>35</v>
+      </c>
+      <c r="C7" s="54">
+        <f t="shared" si="0"/>
+        <v>5880</v>
+      </c>
+      <c r="E7" s="44">
+        <f t="shared" si="1"/>
+        <v>352.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>